--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Incremona\Documents\PhD\Tutorato\IMAD\dataset_progetti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7DAC1-74D1-44B9-9103-2F3989572690}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16398EA-6E01-4C91-A50E-9CF52B90B3C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B46C9421-1CA2-4CB2-983B-9C6E7F6A4F33}"/>
+    <workbookView xWindow="3060" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{B46C9421-1CA2-4CB2-983B-9C6E7F6A4F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>LEGENDA GIORNI SETTIMANA= 1 =Domenica, 2=Lunedì, 3=Martedì, 4=Mercoledì, 5=Giovedì, 6=Venerdì, 7=Sabato</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>INFO=</t>
   </si>
@@ -400,35 +397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DA9981-A6B7-4694-A6B4-67143D6E817D}">
-  <dimension ref="A1:J732"/>
+  <dimension ref="A2:J732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -439,7 +431,7 @@
         <v>24.317970410750004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -450,7 +442,7 @@
         <v>30.499464252375002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -461,7 +453,7 @@
         <v>31.411544218874997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -472,7 +464,7 @@
         <v>31.750625872583331</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -483,13 +475,13 @@
         <v>28.503006267166665</v>
       </c>
       <c r="I7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -500,7 +492,7 @@
         <v>26.113876499083336</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -511,7 +503,7 @@
         <v>34.428952760291665</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -522,7 +514,7 @@
         <v>36.873781635874998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -533,7 +525,7 @@
         <v>37.065214411166664</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -544,7 +536,7 @@
         <v>37.290525892541673</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -555,7 +547,7 @@
         <v>37.235414023916668</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -566,7 +558,7 @@
         <v>31.604945423749996</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -577,7 +569,7 @@
         <v>28.243063564750006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -588,7 +580,7 @@
         <v>36.445926181375</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -599,7 +591,7 @@
         <v>38.319426784875006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -610,7 +602,7 @@
         <v>38.948233732791664</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -621,7 +613,7 @@
         <v>38.607256020041667</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -632,7 +624,7 @@
         <v>38.361380077916671</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -643,7 +635,7 @@
         <v>32.92927620375</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -654,7 +646,7 @@
         <v>29.051142593874996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -665,7 +657,7 @@
         <v>36.796627393250006</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -676,7 +668,7 @@
         <v>38.093223178666669</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -687,7 +679,7 @@
         <v>38.503873467041664</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -698,7 +690,7 @@
         <v>38.289587920875007</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -709,7 +701,7 @@
         <v>38.194918618208327</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -720,7 +712,7 @@
         <v>32.514836611374996</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -731,7 +723,7 @@
         <v>28.826559129875005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -742,7 +734,7 @@
         <v>37.387693548708327</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -753,7 +745,7 @@
         <v>38.263958952125002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -764,7 +756,7 @@
         <v>38.274540091333328</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -775,7 +767,7 @@
         <v>37.58622567841666</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -786,7 +778,7 @@
         <v>37.328240478583332</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -797,7 +789,7 @@
         <v>32.015599168541677</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -808,7 +800,7 @@
         <v>28.424660150874999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -819,7 +811,7 @@
         <v>35.971215752625</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -830,7 +822,7 @@
         <v>37.932105811250004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -841,7 +833,7 @@
         <v>37.986311143416671</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -852,7 +844,7 @@
         <v>38.208881309666673</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -863,7 +855,7 @@
         <v>38.083645833125004</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -874,7 +866,7 @@
         <v>32.695257990249992</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -885,7 +877,7 @@
         <v>29.184246290208335</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -896,7 +888,7 @@
         <v>37.31732213170833</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -907,7 +899,7 @@
         <v>38.131544879416651</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -918,7 +910,7 @@
         <v>38.62909310691667</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -929,7 +921,7 @@
         <v>38.371979716083338</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -940,7 +932,7 @@
         <v>37.68669732241667</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -951,7 +943,7 @@
         <v>32.086961460291668</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -962,7 +954,7 @@
         <v>28.440601664875</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -973,7 +965,7 @@
         <v>36.394435971666674</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -984,7 +976,7 @@
         <v>37.748846478624991</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -995,7 +987,7 @@
         <v>38.001795775041664</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1006,7 +998,7 @@
         <v>38.372718353791669</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1017,7 +1009,7 @@
         <v>38.109610268749989</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1028,7 +1020,7 @@
         <v>32.507815296750003</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1039,7 +1031,7 @@
         <v>29.196672654416663</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1050,7 +1042,7 @@
         <v>36.94986813420833</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1061,7 +1053,7 @@
         <v>38.305456475875005</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1072,7 +1064,7 @@
         <v>38.055441168541662</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1083,7 +1075,7 @@
         <v>37.335241310874999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1094,7 +1086,7 @@
         <v>37.109275784375001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1105,7 +1097,7 @@
         <v>31.709793480416664</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1116,7 +1108,7 @@
         <v>27.707350741416661</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1127,7 +1119,7 @@
         <v>34.986668533541668</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1138,7 +1130,7 @@
         <v>36.745195629083341</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1149,7 +1141,7 @@
         <v>37.676451015416667</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1160,7 +1152,7 @@
         <v>36.876758536833329</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>36.187735942125002</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1182,7 +1174,7 @@
         <v>30.668418390416672</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1193,7 +1185,7 @@
         <v>26.790899141333337</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1204,7 +1196,7 @@
         <v>34.248490454500001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1215,7 +1207,7 @@
         <v>36.261549598083342</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1226,7 +1218,7 @@
         <v>36.702070128875</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1237,7 +1229,7 @@
         <v>36.88511496387499</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1248,7 +1240,7 @@
         <v>36.59447367470834</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1259,7 +1251,7 @@
         <v>31.370924592083338</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1270,7 +1262,7 @@
         <v>28.143180437250006</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1281,7 +1273,7 @@
         <v>36.237174993416666</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1292,7 +1284,7 @@
         <v>36.287046537291666</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1303,7 +1295,7 @@
         <v>36.602448878875002</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1314,7 +1306,7 @@
         <v>36.060536376708335</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1325,7 +1317,7 @@
         <v>35.469455320958339</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1336,7 +1328,7 @@
         <v>30.184925109416668</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1347,7 +1339,7 @@
         <v>27.096287072583337</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1358,7 +1350,7 @@
         <v>35.14812856470833</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1369,7 +1361,7 @@
         <v>36.75119610787501</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1380,7 +1372,7 @@
         <v>36.431595283375003</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1391,7 +1383,7 @@
         <v>35.758315155666672</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1402,7 +1394,7 @@
         <v>33.558753412708334</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1413,7 +1405,7 @@
         <v>27.742861324874998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1424,7 +1416,7 @@
         <v>23.176926302791667</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1435,7 +1427,7 @@
         <v>23.654447959916666</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1446,7 +1438,7 @@
         <v>32.589840145541665</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1457,7 +1449,7 @@
         <v>34.870062903749989</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1468,7 +1460,7 @@
         <v>35.500139385499999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1479,7 +1471,7 @@
         <v>35.245055642083329</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1490,7 +1482,7 @@
         <v>29.799705879916658</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1501,7 +1493,7 @@
         <v>26.48562571141667</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1512,7 +1504,7 @@
         <v>34.125037839249998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1523,7 +1515,7 @@
         <v>35.3612325665</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1534,7 +1526,7 @@
         <v>34.916363297416673</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1545,7 +1537,7 @@
         <v>35.027769772958344</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1556,7 +1548,7 @@
         <v>34.683962138250003</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -1567,7 +1559,7 @@
         <v>28.909217026833335</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1578,7 +1570,7 @@
         <v>25.466749471791662</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1589,7 +1581,7 @@
         <v>32.448599796375007</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1600,7 +1592,7 @@
         <v>34.107819130999992</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1611,7 +1603,7 @@
         <v>34.016362465999997</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -1622,7 +1614,7 @@
         <v>33.554819707583341</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -1633,7 +1625,7 @@
         <v>33.801974314291662</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -1644,7 +1636,7 @@
         <v>28.99396318691667</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -1655,7 +1647,7 @@
         <v>25.451332678375007</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -1666,7 +1658,7 @@
         <v>33.153971398458339</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -1677,7 +1669,7 @@
         <v>33.93797244629166</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>33.486410059666667</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -1699,7 +1691,7 @@
         <v>25.255379585541675</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>28.710188008416662</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -1721,7 +1713,7 @@
         <v>27.456688049458336</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -1732,7 +1724,7 @@
         <v>24.580184090625</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -1743,7 +1735,7 @@
         <v>31.552594518124994</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>32.202256001499997</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -1765,7 +1757,7 @@
         <v>24.074505966375</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -1776,7 +1768,7 @@
         <v>31.436568054125001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -1787,7 +1779,7 @@
         <v>32.646434411333338</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>28.180070838333336</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -1809,7 +1801,7 @@
         <v>25.198359272666675</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -1820,7 +1812,7 @@
         <v>32.527661044625006</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -1831,7 +1823,7 @@
         <v>33.863076285291662</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -1842,7 +1834,7 @@
         <v>33.922134311166673</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -1853,7 +1845,7 @@
         <v>33.95825211541667</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -1864,7 +1856,7 @@
         <v>34.415027665583331</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -1875,7 +1867,7 @@
         <v>29.006571986166662</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -1886,7 +1878,7 @@
         <v>25.164330486999997</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -1897,7 +1889,7 @@
         <v>32.396887212666662</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -1908,7 +1900,7 @@
         <v>33.887096283666665</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>34.322414632125003</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -1930,7 +1922,7 @@
         <v>34.652158858541668</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -1941,7 +1933,7 @@
         <v>33.578615787583338</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -1952,7 +1944,7 @@
         <v>28.956420815750004</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -1963,7 +1955,7 @@
         <v>25.413061986749995</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -1974,7 +1966,7 @@
         <v>32.052170129833335</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -1985,7 +1977,7 @@
         <v>34.048510936541668</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -1996,7 +1988,7 @@
         <v>34.16162391025</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2007,7 +1999,7 @@
         <v>34.098587255833337</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2018,7 +2010,7 @@
         <v>33.934335385416674</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2029,7 +2021,7 @@
         <v>28.67186707483333</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2040,7 +2032,7 @@
         <v>24.915816158125008</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2051,7 +2043,7 @@
         <v>31.900480260375009</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2062,7 +2054,7 @@
         <v>33.749482868666661</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -2073,7 +2065,7 @@
         <v>33.915993303541669</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -2084,7 +2076,7 @@
         <v>33.618862756916663</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -2095,7 +2087,7 @@
         <v>32.938000755874995</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -2106,7 +2098,7 @@
         <v>27.931904163291662</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -2117,7 +2109,7 @@
         <v>24.19579390854167</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -2128,7 +2120,7 @@
         <v>31.510753448458331</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -2139,7 +2131,7 @@
         <v>33.576255735125002</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -2150,7 +2142,7 @@
         <v>34.046546186791666</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -2161,7 +2153,7 @@
         <v>34.194936866958329</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -2172,7 +2164,7 @@
         <v>34.171027148249998</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -2183,7 +2175,7 @@
         <v>29.25640800304166</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -2194,7 +2186,7 @@
         <v>25.855109457041667</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -2205,7 +2197,7 @@
         <v>33.113659958916664</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -2216,7 +2208,7 @@
         <v>34.832790500124993</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -2227,7 +2219,7 @@
         <v>35.082437064833336</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -2238,7 +2230,7 @@
         <v>35.296217498833329</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -2249,7 +2241,7 @@
         <v>35.631337947791671</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -2260,7 +2252,7 @@
         <v>30.700645162624998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -2271,7 +2263,7 @@
         <v>27.23138932083334</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>36.303747606833333</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -2293,7 +2285,7 @@
         <v>39.608597443124992</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -2304,7 +2296,7 @@
         <v>40.718590235833339</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -2315,7 +2307,7 @@
         <v>40.677044567625003</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -2326,7 +2318,7 @@
         <v>39.281875245916673</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -2337,7 +2329,7 @@
         <v>32.942905348583345</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -2348,7 +2340,7 @@
         <v>28.494148509416661</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -2359,7 +2351,7 @@
         <v>35.201734570916663</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -2370,7 +2362,7 @@
         <v>36.63408331845833</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -2381,7 +2373,7 @@
         <v>36.098884807291668</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -2392,7 +2384,7 @@
         <v>35.672038306500006</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -2403,7 +2395,7 @@
         <v>34.787535965625004</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -2414,7 +2406,7 @@
         <v>29.243826707958338</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -2425,7 +2417,7 @@
         <v>26.102691775249998</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -2436,7 +2428,7 @@
         <v>33.820136019916667</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -2447,7 +2439,7 @@
         <v>36.247281753833342</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>36.517670533041667</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -2469,7 +2461,7 @@
         <v>37.020425747541658</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -2480,7 +2472,7 @@
         <v>37.270702946083325</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>32.137228937166661</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -2502,7 +2494,7 @@
         <v>28.321824065666664</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -2513,7 +2505,7 @@
         <v>36.478150049166665</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -2524,7 +2516,7 @@
         <v>38.611156333499999</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -2535,7 +2527,7 @@
         <v>39.036929609125004</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -2546,7 +2538,7 @@
         <v>38.840224158458334</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -2557,7 +2549,7 @@
         <v>38.380241029083336</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -2568,7 +2560,7 @@
         <v>32.632657698750009</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -2579,7 +2571,7 @@
         <v>28.296724085208329</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -2590,7 +2582,7 @@
         <v>37.107315859999993</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -2601,7 +2593,7 @@
         <v>39.130025251833338</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -2612,7 +2604,7 @@
         <v>39.108179685000003</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -2623,7 +2615,7 @@
         <v>39.074218025083333</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -2634,7 +2626,7 @@
         <v>38.713743778666668</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>32.909627582250003</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -2656,7 +2648,7 @@
         <v>28.747080732958334</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -2667,7 +2659,7 @@
         <v>37.970237100458341</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>40.123144497333342</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -2689,7 +2681,7 @@
         <v>40.606112467958333</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -2700,7 +2692,7 @@
         <v>41.076836655583342</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -2711,7 +2703,7 @@
         <v>41.489668939208336</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -2722,7 +2714,7 @@
         <v>36.070428554083328</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -2733,7 +2725,7 @@
         <v>31.944737354625001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -2744,7 +2736,7 @@
         <v>39.170133681791668</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -2755,7 +2747,7 @@
         <v>38.830255177833322</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -2766,7 +2758,7 @@
         <v>38.671094467583337</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -2777,7 +2769,7 @@
         <v>38.703661790874996</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -2788,7 +2780,7 @@
         <v>38.255320795541657</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -2799,7 +2791,7 @@
         <v>33.253869737666669</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -2810,7 +2802,7 @@
         <v>29.991101848374996</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -2821,7 +2813,7 @@
         <v>36.407913465</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -2832,7 +2824,7 @@
         <v>37.592049898791664</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -2843,7 +2835,7 @@
         <v>37.313439379583329</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -2854,7 +2846,7 @@
         <v>36.250704799875002</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -2865,7 +2857,7 @@
         <v>33.575120347833327</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -2876,7 +2868,7 @@
         <v>28.24771148266667</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -2887,7 +2879,7 @@
         <v>25.484617314749997</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -2898,7 +2890,7 @@
         <v>28.936779131708334</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -2909,7 +2901,7 @@
         <v>29.520622638416665</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -2920,7 +2912,7 @@
         <v>27.883255107208331</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -2931,7 +2923,7 @@
         <v>23.710770148916666</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -2942,7 +2934,7 @@
         <v>26.536961387333324</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -2953,7 +2945,7 @@
         <v>26.415578713541674</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -2964,7 +2956,7 @@
         <v>25.345357963041668</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -2975,7 +2967,7 @@
         <v>29.822349940583333</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -2986,7 +2978,7 @@
         <v>29.619518884958328</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -2997,7 +2989,7 @@
         <v>29.434292221083336</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -3008,7 +3000,7 @@
         <v>30.149763161416658</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -3019,7 +3011,7 @@
         <v>30.708182573041668</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -3030,7 +3022,7 @@
         <v>28.617461737416662</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -3041,7 +3033,7 @@
         <v>25.743103570958336</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -3052,7 +3044,7 @@
         <v>31.905072725458336</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -3063,7 +3055,7 @@
         <v>33.846271266291673</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -3074,7 +3066,7 @@
         <v>33.984221920749995</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -3085,7 +3077,7 @@
         <v>34.157255162874996</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -3096,7 +3088,7 @@
         <v>33.790134203249998</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -3107,7 +3099,7 @@
         <v>29.277348944083332</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -3118,7 +3110,7 @@
         <v>26.328601453458333</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -3129,7 +3121,7 @@
         <v>34.050817279874998</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -3140,7 +3132,7 @@
         <v>36.347755867791662</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -3151,7 +3143,7 @@
         <v>37.134861579083328</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -3162,7 +3154,7 @@
         <v>37.371851685833342</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -3173,7 +3165,7 @@
         <v>37.404418635874997</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -3184,7 +3176,7 @@
         <v>31.818565202249999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -3195,7 +3187,7 @@
         <v>27.977834312374995</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -3206,7 +3198,7 @@
         <v>35.14256953258333</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -3217,7 +3209,7 @@
         <v>36.162179314958337</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -3228,7 +3220,7 @@
         <v>35.784119855250005</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -3239,7 +3231,7 @@
         <v>35.470897911916673</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -3250,7 +3242,7 @@
         <v>34.939257416833335</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -3261,7 +3253,7 @@
         <v>29.775538935875005</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -3272,7 +3264,7 @@
         <v>26.201372851166667</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -3283,7 +3275,7 @@
         <v>33.370538664833333</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -3294,7 +3286,7 @@
         <v>34.787311809500011</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -3305,7 +3297,7 @@
         <v>34.898990118625001</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -3316,7 +3308,7 @@
         <v>34.974086402666664</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -3327,7 +3319,7 @@
         <v>34.928406350708336</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -3338,7 +3330,7 @@
         <v>29.547297044708341</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -3349,7 +3341,7 @@
         <v>25.858418141124996</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -3360,7 +3352,7 @@
         <v>33.188551863708334</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -3371,7 +3363,7 @@
         <v>35.107752005958339</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -3382,7 +3374,7 @@
         <v>35.217352169416671</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -3393,7 +3385,7 @@
         <v>35.429824219833336</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -3404,7 +3396,7 @@
         <v>35.068171492583332</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -3415,7 +3407,7 @@
         <v>29.874150533749997</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -3426,7 +3418,7 @@
         <v>26.243216002625005</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -3437,7 +3429,7 @@
         <v>32.830164185958338</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -3448,7 +3440,7 @@
         <v>34.575453568250005</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -3459,7 +3451,7 @@
         <v>34.673613840666668</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -3470,7 +3462,7 @@
         <v>34.67266429433333</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -3481,7 +3473,7 @@
         <v>34.256887940624999</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -3492,7 +3484,7 @@
         <v>29.046792227249998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -3503,7 +3495,7 @@
         <v>25.569484202041664</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -3514,7 +3506,7 @@
         <v>33.602953998416666</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -3525,7 +3517,7 @@
         <v>34.376687158374999</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -3536,7 +3528,7 @@
         <v>34.517074321708336</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -3547,7 +3539,7 @@
         <v>34.452497280916667</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -3558,7 +3550,7 @@
         <v>33.733565207833344</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -3569,7 +3561,7 @@
         <v>28.464590625750002</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -3580,7 +3572,7 @@
         <v>25.173680720541672</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -3591,7 +3583,7 @@
         <v>32.871302931291666</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -3602,7 +3594,7 @@
         <v>34.518558741541661</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -3613,7 +3605,7 @@
         <v>34.636969643041667</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -3624,7 +3616,7 @@
         <v>34.52562287391666</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -3635,7 +3627,7 @@
         <v>34.342791716749993</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -3646,7 +3638,7 @@
         <v>28.950556522083335</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -3657,7 +3649,7 @@
         <v>25.528455098083331</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -3668,7 +3660,7 @@
         <v>33.271758543208335</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -3679,7 +3671,7 @@
         <v>34.986312446916671</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -3690,7 +3682,7 @@
         <v>35.498722839666662</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -3701,7 +3693,7 @@
         <v>34.888201197000001</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -3712,7 +3704,7 @@
         <v>34.157799594833335</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -3723,7 +3715,7 @@
         <v>29.391931750041664</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -3734,7 +3726,7 @@
         <v>25.571829438291669</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -3745,7 +3737,7 @@
         <v>33.117412588500002</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -3756,7 +3748,7 @@
         <v>34.78399016920833</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -3767,7 +3759,7 @@
         <v>34.91498650216667</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -3778,7 +3770,7 @@
         <v>33.867681320166675</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -3789,7 +3781,7 @@
         <v>25.365281242333335</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -3800,7 +3792,7 @@
         <v>25.94799049758333</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -3811,7 +3803,7 @@
         <v>24.266518687416667</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -3822,7 +3814,7 @@
         <v>32.704739044791673</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -3833,7 +3825,7 @@
         <v>34.434071957041674</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -3844,7 +3836,7 @@
         <v>34.698901766291662</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -3855,7 +3847,7 @@
         <v>34.445618443249998</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -3866,7 +3858,7 @@
         <v>34.384387853124998</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -3877,7 +3869,7 @@
         <v>29.819856390166663</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -3888,7 +3880,7 @@
         <v>25.881918771916673</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -3899,7 +3891,7 @@
         <v>33.500138344500009</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -3910,7 +3902,7 @@
         <v>35.060606473708333</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -3921,7 +3913,7 @@
         <v>35.255704315750002</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -3932,7 +3924,7 @@
         <v>35.268338217583327</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -3943,7 +3935,7 @@
         <v>34.845456422999995</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -3954,7 +3946,7 @@
         <v>29.471064763708331</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -3965,7 +3957,7 @@
         <v>26.454439639041667</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -3976,7 +3968,7 @@
         <v>34.160858101958326</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -3987,7 +3979,7 @@
         <v>35.804260368291658</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -3998,7 +3990,7 @@
         <v>35.555197946458328</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -4009,7 +4001,7 @@
         <v>36.024358861250001</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -4020,7 +4012,7 @@
         <v>36.202366578208341</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -4031,7 +4023,7 @@
         <v>31.307956620750002</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -4042,7 +4034,7 @@
         <v>27.577402715583336</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -4053,7 +4045,7 @@
         <v>35.297005418875003</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -4064,7 +4056,7 @@
         <v>37.590919591833334</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -4075,7 +4067,7 @@
         <v>38.648726258166676</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -4086,7 +4078,7 @@
         <v>38.317257872458335</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -4097,7 +4089,7 @@
         <v>38.254077126999995</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -4108,7 +4100,7 @@
         <v>32.734090622666677</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -4119,7 +4111,7 @@
         <v>28.662673517916662</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -4130,7 +4122,7 @@
         <v>36.044529163124999</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -4141,7 +4133,7 @@
         <v>37.484791597250002</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -4152,7 +4144,7 @@
         <v>37.778594074958335</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -4163,7 +4155,7 @@
         <v>38.156125751833336</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -4174,7 +4166,7 @@
         <v>37.759924718000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -4185,7 +4177,7 @@
         <v>32.233074723874999</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -4196,7 +4188,7 @@
         <v>28.401242817958334</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -4207,7 +4199,7 @@
         <v>36.651983534583337</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -4218,7 +4210,7 @@
         <v>38.02658247004166</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -4229,7 +4221,7 @@
         <v>38.461495043791665</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -4240,7 +4232,7 @@
         <v>38.485024806208322</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -4251,7 +4243,7 @@
         <v>38.228107608833341</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -4262,7 +4254,7 @@
         <v>32.785396508083345</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -4273,7 +4265,7 @@
         <v>29.09491844445833</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -4284,7 +4276,7 @@
         <v>36.482824310833337</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -4295,7 +4287,7 @@
         <v>37.735957126208326</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -4306,7 +4298,7 @@
         <v>37.715468051958332</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -4317,7 +4309,7 @@
         <v>37.939206371000004</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -4328,7 +4320,7 @@
         <v>36.289075412458338</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -4339,7 +4331,7 @@
         <v>30.914805800375003</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -4350,7 +4342,7 @@
         <v>27.518657117541661</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -4361,7 +4353,7 @@
         <v>30.69069427420833</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -4372,7 +4364,7 @@
         <v>28.101808658791668</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -4383,7 +4375,7 @@
         <v>23.811829564333333</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -4394,7 +4386,7 @@
         <v>24.149725898250001</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -4405,7 +4397,7 @@
         <v>28.248727813749998</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -4416,7 +4408,7 @@
         <v>27.234909744541667</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -4427,7 +4419,7 @@
         <v>25.459926441916664</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -4438,7 +4430,7 @@
         <v>28.763517674374999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -4449,7 +4441,7 @@
         <v>27.235402106250003</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -4460,7 +4452,7 @@
         <v>23.172601477124996</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -4471,7 +4463,7 @@
         <v>29.616813384708337</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3</v>
       </c>
@@ -4482,7 +4474,7 @@
         <v>30.323635794416663</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>4</v>
       </c>
@@ -4493,7 +4485,7 @@
         <v>28.027592526791668</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5</v>
       </c>
@@ -4504,7 +4496,7 @@
         <v>25.880985491666664</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>6</v>
       </c>
@@ -4515,7 +4507,7 @@
         <v>25.458291306833335</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>7</v>
       </c>
@@ -4526,7 +4518,7 @@
         <v>34.309257269458335</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8</v>
       </c>
@@ -4537,7 +4529,7 @@
         <v>36.186658837833335</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>9</v>
       </c>
@@ -4548,7 +4540,7 @@
         <v>36.656694171999995</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>10</v>
       </c>
@@ -4559,7 +4551,7 @@
         <v>36.436000282791667</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>11</v>
       </c>
@@ -4570,7 +4562,7 @@
         <v>30.387778611916659</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>12</v>
       </c>
@@ -4581,7 +4573,7 @@
         <v>26.399376536083338</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>13</v>
       </c>
@@ -4592,7 +4584,7 @@
         <v>35.846018767166662</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>14</v>
       </c>
@@ -4603,7 +4595,7 @@
         <v>37.487832368999996</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>15</v>
       </c>
@@ -4614,7 +4606,7 @@
         <v>37.349384998333342</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>16</v>
       </c>
@@ -4625,7 +4617,7 @@
         <v>37.950226368208341</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>17</v>
       </c>
@@ -4636,7 +4628,7 @@
         <v>37.946242590916661</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>18</v>
       </c>
@@ -4647,7 +4639,7 @@
         <v>31.463506493375004</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>19</v>
       </c>
@@ -4658,7 +4650,7 @@
         <v>27.311764675041662</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>20</v>
       </c>
@@ -4669,7 +4661,7 @@
         <v>35.72827636800001</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>21</v>
       </c>
@@ -4680,7 +4672,7 @@
         <v>36.933354180958332</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>22</v>
       </c>
@@ -4691,7 +4683,7 @@
         <v>36.857585291583327</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>23</v>
       </c>
@@ -4702,7 +4694,7 @@
         <v>37.185343861749992</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>24</v>
       </c>
@@ -4713,7 +4705,7 @@
         <v>37.352356964958332</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>25</v>
       </c>
@@ -4724,7 +4716,7 @@
         <v>31.510869248541663</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>26</v>
       </c>
@@ -4735,7 +4727,7 @@
         <v>27.414049493416666</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>27</v>
       </c>
@@ -4746,7 +4738,7 @@
         <v>36.325018053749993</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>28</v>
       </c>
@@ -4757,7 +4749,7 @@
         <v>37.787171019374988</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>29</v>
       </c>
@@ -4768,7 +4760,7 @@
         <v>38.226088381958341</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>30</v>
       </c>
@@ -4779,7 +4771,7 @@
         <v>38.360269605583333</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>31</v>
       </c>
@@ -4790,7 +4782,7 @@
         <v>37.837437034708337</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>32</v>
       </c>
@@ -4801,7 +4793,7 @@
         <v>31.572163620333338</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>33</v>
       </c>
@@ -4812,7 +4804,7 @@
         <v>27.350251730041663</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>34</v>
       </c>
@@ -4823,7 +4815,7 @@
         <v>35.940782012041659</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>35</v>
       </c>
@@ -4834,7 +4826,7 @@
         <v>37.319901276291667</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>36</v>
       </c>
@@ -4845,7 +4837,7 @@
         <v>37.56335641816667</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>37</v>
       </c>
@@ -4856,7 +4848,7 @@
         <v>37.109680902750007</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>38</v>
       </c>
@@ -4867,7 +4859,7 @@
         <v>37.220065679958331</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>39</v>
       </c>
@@ -4878,7 +4870,7 @@
         <v>31.087791630499996</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>40</v>
       </c>
@@ -4889,7 +4881,7 @@
         <v>27.063191531291668</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>41</v>
       </c>
@@ -4900,7 +4892,7 @@
         <v>36.289214036958334</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>42</v>
       </c>
@@ -4911,7 +4903,7 @@
         <v>37.078270293208334</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>43</v>
       </c>
@@ -4922,7 +4914,7 @@
         <v>37.117172641791669</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>44</v>
       </c>
@@ -4933,7 +4925,7 @@
         <v>37.288748478041661</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>45</v>
       </c>
@@ -4944,7 +4936,7 @@
         <v>36.340058765125001</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>46</v>
       </c>
@@ -4955,7 +4947,7 @@
         <v>30.483903840083329</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>47</v>
       </c>
@@ -4966,7 +4958,7 @@
         <v>26.330007333000001</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>48</v>
       </c>
@@ -4977,7 +4969,7 @@
         <v>34.342161610583339</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>49</v>
       </c>
@@ -4988,7 +4980,7 @@
         <v>35.884342362000005</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>50</v>
       </c>
@@ -4999,7 +4991,7 @@
         <v>36.649691795583337</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>51</v>
       </c>
@@ -5010,7 +5002,7 @@
         <v>36.629127886375009</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>52</v>
       </c>
@@ -5021,7 +5013,7 @@
         <v>36.213710329958339</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>53</v>
       </c>
@@ -5032,7 +5024,7 @@
         <v>30.196447213624996</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>54</v>
       </c>
@@ -5043,7 +5035,7 @@
         <v>26.06750605620833</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>55</v>
       </c>
@@ -5054,7 +5046,7 @@
         <v>34.375100327874996</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>56</v>
       </c>
@@ -5065,7 +5057,7 @@
         <v>35.984391598041668</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>57</v>
       </c>
@@ -5076,7 +5068,7 @@
         <v>36.909820631291666</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>58</v>
       </c>
@@ -5087,7 +5079,7 @@
         <v>36.268908378333329</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>59</v>
       </c>
@@ -5098,7 +5090,7 @@
         <v>36.448557397624988</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>60</v>
       </c>
@@ -5109,7 +5101,7 @@
         <v>30.773254611125001</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>61</v>
       </c>
@@ -5120,7 +5112,7 @@
         <v>26.473161894041667</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>62</v>
       </c>
@@ -5131,7 +5123,7 @@
         <v>34.614025909916677</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>63</v>
       </c>
@@ -5142,7 +5134,7 @@
         <v>36.201876395041658</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>64</v>
       </c>
@@ -5153,7 +5145,7 @@
         <v>36.416080733041667</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>65</v>
       </c>
@@ -5164,7 +5156,7 @@
         <v>36.319149185749993</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>66</v>
       </c>
@@ -5175,7 +5167,7 @@
         <v>35.619868312125</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>67</v>
       </c>
@@ -5186,7 +5178,7 @@
         <v>29.507120216166665</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>68</v>
       </c>
@@ -5197,7 +5189,7 @@
         <v>25.349448102416662</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>69</v>
       </c>
@@ -5208,7 +5200,7 @@
         <v>33.79285091654166</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>70</v>
       </c>
@@ -5219,7 +5211,7 @@
         <v>35.250199125333346</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>71</v>
       </c>
@@ -5230,7 +5222,7 @@
         <v>35.230634897874999</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>72</v>
       </c>
@@ -5241,7 +5233,7 @@
         <v>35.094282821624994</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>73</v>
       </c>
@@ -5252,7 +5244,7 @@
         <v>34.725155995499996</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>74</v>
       </c>
@@ -5263,7 +5255,7 @@
         <v>29.113419089624998</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>75</v>
       </c>
@@ -5274,7 +5266,7 @@
         <v>24.727305837416669</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>76</v>
       </c>
@@ -5285,7 +5277,7 @@
         <v>32.809334581708328</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>77</v>
       </c>
@@ -5296,7 +5288,7 @@
         <v>33.985191294125002</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>78</v>
       </c>
@@ -5307,7 +5299,7 @@
         <v>34.046258811583336</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>79</v>
       </c>
@@ -5318,7 +5310,7 @@
         <v>33.97469009195833</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>80</v>
       </c>
@@ -5329,7 +5321,7 @@
         <v>33.589012601124999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>81</v>
       </c>
@@ -5340,7 +5332,7 @@
         <v>28.955172761499995</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>82</v>
       </c>
@@ -5351,7 +5343,7 @@
         <v>25.454844656624999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>83</v>
       </c>
@@ -5362,7 +5354,7 @@
         <v>33.543130389875003</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>84</v>
       </c>
@@ -5373,7 +5365,7 @@
         <v>34.944361984583331</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>85</v>
       </c>
@@ -5384,7 +5376,7 @@
         <v>35.377755969166664</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>86</v>
       </c>
@@ -5395,7 +5387,7 @@
         <v>35.452555914125</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>87</v>
       </c>
@@ -5406,7 +5398,7 @@
         <v>34.419380182041664</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>88</v>
       </c>
@@ -5417,7 +5409,7 @@
         <v>28.503035694291668</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>89</v>
       </c>
@@ -5428,7 +5420,7 @@
         <v>24.432311590958331</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>90</v>
       </c>
@@ -5439,7 +5431,7 @@
         <v>32.191065326583335</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>91</v>
       </c>
@@ -5450,7 +5442,7 @@
         <v>33.774955935999998</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>92</v>
       </c>
@@ -5461,7 +5453,7 @@
         <v>34.345637967833333</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>93</v>
       </c>
@@ -5472,7 +5464,7 @@
         <v>34.817090069541671</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>94</v>
       </c>
@@ -5483,7 +5475,7 @@
         <v>35.199620639374992</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>95</v>
       </c>
@@ -5494,7 +5486,7 @@
         <v>28.989394493958333</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>96</v>
       </c>
@@ -5505,7 +5497,7 @@
         <v>24.703103032749997</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>97</v>
       </c>
@@ -5516,7 +5508,7 @@
         <v>32.666359811833338</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>98</v>
       </c>
@@ -5527,7 +5519,7 @@
         <v>34.288297846666666</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>99</v>
       </c>
@@ -5538,7 +5530,7 @@
         <v>34.454802020249993</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>100</v>
       </c>
@@ -5549,7 +5541,7 @@
         <v>34.028881036999998</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>101</v>
       </c>
@@ -5560,7 +5552,7 @@
         <v>33.924213431333328</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>102</v>
       </c>
@@ -5571,7 +5563,7 @@
         <v>28.335296184833336</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>103</v>
       </c>
@@ -5582,7 +5574,7 @@
         <v>24.477300645624997</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>104</v>
       </c>
@@ -5593,7 +5585,7 @@
         <v>32.139422381624996</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>105</v>
       </c>
@@ -5604,7 +5596,7 @@
         <v>33.695165891666669</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>106</v>
       </c>
@@ -5615,7 +5607,7 @@
         <v>33.942281729208325</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>107</v>
       </c>
@@ -5626,7 +5618,7 @@
         <v>33.959717288749999</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>108</v>
       </c>
@@ -5637,7 +5629,7 @@
         <v>32.75833323016667</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>109</v>
       </c>
@@ -5648,7 +5640,7 @@
         <v>26.751225055541667</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>110</v>
       </c>
@@ -5659,7 +5651,7 @@
         <v>20.961353644041669</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>111</v>
       </c>
@@ -5670,7 +5662,7 @@
         <v>21.59434069158333</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>112</v>
       </c>
@@ -5681,7 +5673,7 @@
         <v>29.859956682666667</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>113</v>
       </c>
@@ -5692,7 +5684,7 @@
         <v>32.044445689625</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>114</v>
       </c>
@@ -5703,7 +5695,7 @@
         <v>31.188664189250005</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>115</v>
       </c>
@@ -5714,7 +5706,7 @@
         <v>23.919246981583331</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>116</v>
       </c>
@@ -5725,7 +5717,7 @@
         <v>24.658291385333339</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>117</v>
       </c>
@@ -5736,7 +5728,7 @@
         <v>23.280606910833331</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>118</v>
       </c>
@@ -5747,7 +5739,7 @@
         <v>31.63017711620833</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>119</v>
       </c>
@@ -5758,7 +5750,7 @@
         <v>32.261777533666667</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>120</v>
       </c>
@@ -5769,7 +5761,7 @@
         <v>32.765481271458327</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>121</v>
       </c>
@@ -5780,7 +5772,7 @@
         <v>23.020828869708335</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>122</v>
       </c>
@@ -5791,7 +5783,7 @@
         <v>28.658722785625006</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>123</v>
       </c>
@@ -5802,7 +5794,7 @@
         <v>26.391259164166659</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>124</v>
       </c>
@@ -5813,7 +5805,7 @@
         <v>23.352019676833333</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>125</v>
       </c>
@@ -5824,7 +5816,7 @@
         <v>31.662583605624999</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>126</v>
       </c>
@@ -5835,7 +5827,7 @@
         <v>33.119001948874995</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>127</v>
       </c>
@@ -5846,7 +5838,7 @@
         <v>34.150327533749994</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>128</v>
       </c>
@@ -5857,7 +5849,7 @@
         <v>33.412047409916667</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>129</v>
       </c>
@@ -5868,7 +5860,7 @@
         <v>33.53160222879167</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>130</v>
       </c>
@@ -5879,7 +5871,7 @@
         <v>27.998378973625005</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>131</v>
       </c>
@@ -5890,7 +5882,7 @@
         <v>24.334802593708336</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>132</v>
       </c>
@@ -5901,7 +5893,7 @@
         <v>31.37299224595834</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>133</v>
       </c>
@@ -5912,7 +5904,7 @@
         <v>33.490258627791668</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>134</v>
       </c>
@@ -5923,7 +5915,7 @@
         <v>33.715266792916658</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>135</v>
       </c>
@@ -5934,7 +5926,7 @@
         <v>33.796926662375</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>136</v>
       </c>
@@ -5945,7 +5937,7 @@
         <v>33.621740078333332</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>137</v>
       </c>
@@ -5956,7 +5948,7 @@
         <v>27.696667447874997</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>138</v>
       </c>
@@ -5967,7 +5959,7 @@
         <v>23.920136218375003</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>139</v>
       </c>
@@ -5978,7 +5970,7 @@
         <v>32.204409997416668</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>140</v>
       </c>
@@ -5989,7 +5981,7 @@
         <v>33.882223751541659</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>141</v>
       </c>
@@ -6000,7 +5992,7 @@
         <v>34.190081984166675</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>142</v>
       </c>
@@ -6011,7 +6003,7 @@
         <v>34.338031215041674</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>143</v>
       </c>
@@ -6022,7 +6014,7 @@
         <v>34.222864113625</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>144</v>
       </c>
@@ -6033,7 +6025,7 @@
         <v>28.605301838541667</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>145</v>
       </c>
@@ -6044,7 +6036,7 @@
         <v>24.978221001874999</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>146</v>
       </c>
@@ -6055,7 +6047,7 @@
         <v>32.594836850541661</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>147</v>
       </c>
@@ -6066,7 +6058,7 @@
         <v>34.246482966458331</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>148</v>
       </c>
@@ -6077,7 +6069,7 @@
         <v>34.151786102666669</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>149</v>
       </c>
@@ -6088,7 +6080,7 @@
         <v>33.716606376249999</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>150</v>
       </c>
@@ -6099,7 +6091,7 @@
         <v>33.494629227291661</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>151</v>
       </c>
@@ -6110,7 +6102,7 @@
         <v>27.955122347499998</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>152</v>
       </c>
@@ -6121,7 +6113,7 @@
         <v>23.480087694583332</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>153</v>
       </c>
@@ -6132,7 +6124,7 @@
         <v>23.388725424291664</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>154</v>
       </c>
@@ -6143,7 +6135,7 @@
         <v>31.937248072666662</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>155</v>
       </c>
@@ -6154,7 +6146,7 @@
         <v>34.17295551445833</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>156</v>
       </c>
@@ -6165,7 +6157,7 @@
         <v>34.264489029375</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>157</v>
       </c>
@@ -6176,7 +6168,7 @@
         <v>34.700664709416678</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>158</v>
       </c>
@@ -6187,7 +6179,7 @@
         <v>29.731321020916667</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>159</v>
       </c>
@@ -6198,7 +6190,7 @@
         <v>26.284569082666668</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>160</v>
       </c>
@@ -6209,7 +6201,7 @@
         <v>35.444096383249999</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>161</v>
       </c>
@@ -6220,7 +6212,7 @@
         <v>38.435865664874996</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>162</v>
       </c>
@@ -6231,7 +6223,7 @@
         <v>39.077506217708333</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>163</v>
       </c>
@@ -6242,7 +6234,7 @@
         <v>39.915465264458341</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>164</v>
       </c>
@@ -6253,7 +6245,7 @@
         <v>39.289098625749993</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>165</v>
       </c>
@@ -6264,7 +6256,7 @@
         <v>32.499011880458333</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>166</v>
       </c>
@@ -6275,7 +6267,7 @@
         <v>26.878292834250001</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>167</v>
       </c>
@@ -6286,7 +6278,7 @@
         <v>34.856077302083321</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>168</v>
       </c>
@@ -6297,7 +6289,7 @@
         <v>36.546159365208332</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>169</v>
       </c>
@@ -6308,7 +6300,7 @@
         <v>36.997460819041663</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>170</v>
       </c>
@@ -6319,7 +6311,7 @@
         <v>36.881814116000008</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>171</v>
       </c>
@@ -6330,7 +6322,7 @@
         <v>36.19014969291667</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>172</v>
       </c>
@@ -6341,7 +6333,7 @@
         <v>30.214802965083326</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>173</v>
       </c>
@@ -6352,7 +6344,7 @@
         <v>26.26978917295833</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>174</v>
       </c>
@@ -6363,7 +6355,7 @@
         <v>35.397499926083334</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>175</v>
       </c>
@@ -6374,7 +6366,7 @@
         <v>37.093232998541659</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>176</v>
       </c>
@@ -6385,7 +6377,7 @@
         <v>37.505494767333339</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>177</v>
       </c>
@@ -6396,7 +6388,7 @@
         <v>36.899227482874998</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>178</v>
       </c>
@@ -6407,7 +6399,7 @@
         <v>36.450070641416659</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>179</v>
       </c>
@@ -6418,7 +6410,7 @@
         <v>30.775899834916661</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>180</v>
       </c>
@@ -6429,7 +6421,7 @@
         <v>26.604218195083334</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>181</v>
       </c>
@@ -6440,7 +6432,7 @@
         <v>34.34223568045833</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>182</v>
       </c>
@@ -6451,7 +6443,7 @@
         <v>36.047930969750006</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>183</v>
       </c>
@@ -6462,7 +6454,7 @@
         <v>36.840950787375</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>184</v>
       </c>
@@ -6473,7 +6465,7 @@
         <v>37.019469381958324</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>185</v>
       </c>
@@ -6484,7 +6476,7 @@
         <v>37.186280405916669</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>186</v>
       </c>
@@ -6495,7 +6487,7 @@
         <v>31.096423274541664</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>187</v>
       </c>
@@ -6506,7 +6498,7 @@
         <v>27.30532234979167</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>188</v>
       </c>
@@ -6517,7 +6509,7 @@
         <v>36.650114137666669</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>189</v>
       </c>
@@ -6528,7 +6520,7 @@
         <v>37.294204446041668</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>190</v>
       </c>
@@ -6539,7 +6531,7 @@
         <v>36.586777590124989</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>191</v>
       </c>
@@ -6550,7 +6542,7 @@
         <v>35.772968474583337</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>192</v>
       </c>
@@ -6561,7 +6553,7 @@
         <v>35.360275388541673</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>193</v>
       </c>
@@ -6572,7 +6564,7 @@
         <v>30.188673636083326</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>194</v>
       </c>
@@ -6583,7 +6575,7 @@
         <v>26.093267486291666</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>195</v>
       </c>
@@ -6594,7 +6586,7 @@
         <v>34.197436339791665</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>196</v>
       </c>
@@ -6605,7 +6597,7 @@
         <v>36.502032392541665</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>197</v>
       </c>
@@ -6616,7 +6608,7 @@
         <v>37.994339549958333</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>198</v>
       </c>
@@ -6627,7 +6619,7 @@
         <v>38.982425041541667</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>199</v>
       </c>
@@ -6638,7 +6630,7 @@
         <v>39.207204292458336</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>200</v>
       </c>
@@ -6649,7 +6641,7 @@
         <v>33.808668115916667</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>201</v>
       </c>
@@ -6660,7 +6652,7 @@
         <v>28.985486328833328</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>202</v>
       </c>
@@ -6671,7 +6663,7 @@
         <v>36.982732161916665</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>203</v>
       </c>
@@ -6682,7 +6674,7 @@
         <v>37.173653959374995</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>204</v>
       </c>
@@ -6693,7 +6685,7 @@
         <v>38.177191236166671</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>205</v>
       </c>
@@ -6704,7 +6696,7 @@
         <v>37.836166522166671</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>206</v>
       </c>
@@ -6715,7 +6707,7 @@
         <v>37.582710829791672</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>207</v>
       </c>
@@ -6726,7 +6718,7 @@
         <v>31.725197386416671</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>208</v>
       </c>
@@ -6737,7 +6729,7 @@
         <v>27.007273350041668</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>209</v>
       </c>
@@ -6748,7 +6740,7 @@
         <v>35.48289138620833</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>210</v>
       </c>
@@ -6759,7 +6751,7 @@
         <v>36.490269307624999</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>211</v>
       </c>
@@ -6770,7 +6762,7 @@
         <v>35.572782462041665</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>212</v>
       </c>
@@ -6781,7 +6773,7 @@
         <v>35.281995716625005</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>213</v>
       </c>
@@ -6792,7 +6784,7 @@
         <v>35.125484838041665</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>214</v>
       </c>
@@ -6803,7 +6795,7 @@
         <v>29.934975524833334</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>215</v>
       </c>
@@ -6814,7 +6806,7 @@
         <v>26.004467328500002</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>216</v>
       </c>
@@ -6825,7 +6817,7 @@
         <v>32.172302947833337</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>217</v>
       </c>
@@ -6836,7 +6828,7 @@
         <v>33.030207858458333</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>218</v>
       </c>
@@ -6847,7 +6839,7 @@
         <v>32.750437515125007</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>219</v>
       </c>
@@ -6858,7 +6850,7 @@
         <v>32.372748362291667</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>220</v>
       </c>
@@ -6869,7 +6861,7 @@
         <v>31.344183812374997</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>221</v>
       </c>
@@ -6880,7 +6872,7 @@
         <v>27.586616827458332</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>222</v>
       </c>
@@ -6891,7 +6883,7 @@
         <v>24.981599859291673</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>223</v>
       </c>
@@ -6902,7 +6894,7 @@
         <v>28.777286020500004</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>224</v>
       </c>
@@ -6913,7 +6905,7 @@
         <v>29.341048889749999</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>225</v>
       </c>
@@ -6924,7 +6916,7 @@
         <v>29.374726450208339</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>226</v>
       </c>
@@ -6935,7 +6927,7 @@
         <v>27.372817685458333</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>227</v>
       </c>
@@ -6946,7 +6938,7 @@
         <v>22.596858329916671</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>228</v>
       </c>
@@ -6957,7 +6949,7 @@
         <v>23.384376182708337</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>229</v>
       </c>
@@ -6968,7 +6960,7 @@
         <v>22.24979160420833</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>230</v>
       </c>
@@ -6979,7 +6971,7 @@
         <v>26.516658814124998</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>231</v>
       </c>
@@ -6990,7 +6982,7 @@
         <v>27.686004831625002</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>232</v>
       </c>
@@ -7001,7 +6993,7 @@
         <v>28.262685503208335</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>233</v>
       </c>
@@ -7012,7 +7004,7 @@
         <v>28.879804266791666</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>234</v>
       </c>
@@ -7023,7 +7015,7 @@
         <v>29.345458931166664</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>235</v>
       </c>
@@ -7034,7 +7026,7 @@
         <v>27.19132006625</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>236</v>
       </c>
@@ -7045,7 +7037,7 @@
         <v>24.443156164333335</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>237</v>
       </c>
@@ -7056,7 +7048,7 @@
         <v>31.053852318333337</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>238</v>
       </c>
@@ -7067,7 +7059,7 @@
         <v>33.290555303875003</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>239</v>
       </c>
@@ -7078,7 +7070,7 @@
         <v>34.126717125583333</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>240</v>
       </c>
@@ -7089,7 +7081,7 @@
         <v>34.560766358999999</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>241</v>
       </c>
@@ -7100,7 +7092,7 @@
         <v>34.385708629458335</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>242</v>
       </c>
@@ -7111,7 +7103,7 @@
         <v>29.880867000750005</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>243</v>
       </c>
@@ -7122,7 +7114,7 @@
         <v>26.324288219333337</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>244</v>
       </c>
@@ -7133,7 +7125,7 @@
         <v>33.7416590865</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>245</v>
       </c>
@@ -7144,7 +7136,7 @@
         <v>35.064029541083336</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>246</v>
       </c>
@@ -7155,7 +7147,7 @@
         <v>35.5659551165</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>247</v>
       </c>
@@ -7166,7 +7158,7 @@
         <v>36.000020819166672</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>248</v>
       </c>
@@ -7177,7 +7169,7 @@
         <v>36.279628588416664</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>249</v>
       </c>
@@ -7188,7 +7180,7 @@
         <v>30.03366384291667</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>250</v>
       </c>
@@ -7199,7 +7191,7 @@
         <v>26.205684979916665</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>251</v>
       </c>
@@ -7210,7 +7202,7 @@
         <v>34.345013607416668</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>252</v>
       </c>
@@ -7221,7 +7213,7 @@
         <v>36.872746510458342</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>253</v>
       </c>
@@ -7232,7 +7224,7 @@
         <v>36.858201201708333</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>254</v>
       </c>
@@ -7243,7 +7235,7 @@
         <v>36.244217799625005</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>255</v>
       </c>
@@ -7254,7 +7246,7 @@
         <v>36.081397322249998</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>256</v>
       </c>
@@ -7265,7 +7257,7 @@
         <v>29.800375449625005</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>257</v>
       </c>
@@ -7276,7 +7268,7 @@
         <v>25.986740534499997</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>258</v>
       </c>
@@ -7287,7 +7279,7 @@
         <v>33.744989720958323</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>259</v>
       </c>
@@ -7298,7 +7290,7 @@
         <v>35.704082771208327</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>260</v>
       </c>
@@ -7309,7 +7301,7 @@
         <v>35.747969776208336</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>261</v>
       </c>
@@ -7320,7 +7312,7 @@
         <v>35.948740312500007</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>262</v>
       </c>
@@ -7331,7 +7323,7 @@
         <v>36.159081500250004</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>263</v>
       </c>
@@ -7342,7 +7334,7 @@
         <v>30.841194381958331</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>264</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>26.711201454208325</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>265</v>
       </c>
@@ -7364,7 +7356,7 @@
         <v>34.559947624916667</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>266</v>
       </c>
@@ -7375,7 +7367,7 @@
         <v>35.228473532499997</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>267</v>
       </c>
@@ -7383,7 +7375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>268</v>
       </c>
@@ -7394,7 +7386,7 @@
         <v>35.429167326708331</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>269</v>
       </c>
@@ -7405,7 +7397,7 @@
         <v>35.03865241383334</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>270</v>
       </c>
@@ -7416,7 +7408,7 @@
         <v>29.67785582620834</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>271</v>
       </c>
@@ -7427,7 +7419,7 @@
         <v>25.664240363458333</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>272</v>
       </c>
@@ -7438,7 +7430,7 @@
         <v>33.272201886750004</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>273</v>
       </c>
@@ -7449,7 +7441,7 @@
         <v>35.166751387083337</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>274</v>
       </c>
@@ -7460,7 +7452,7 @@
         <v>35.565904555499998</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>275</v>
       </c>
@@ -7471,7 +7463,7 @@
         <v>35.642978936333336</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>276</v>
       </c>
@@ -7482,7 +7474,7 @@
         <v>35.269481681499997</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>277</v>
       </c>
@@ -7493,7 +7485,7 @@
         <v>29.681894245375009</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>278</v>
       </c>
@@ -7504,7 +7496,7 @@
         <v>25.969108872500001</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>279</v>
       </c>
@@ -7515,7 +7507,7 @@
         <v>33.335777508458328</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>280</v>
       </c>
@@ -7526,7 +7518,7 @@
         <v>35.208238052250003</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>281</v>
       </c>
@@ -7537,7 +7529,7 @@
         <v>35.82246650783334</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>282</v>
       </c>
@@ -7548,7 +7540,7 @@
         <v>35.415606062708328</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>283</v>
       </c>
@@ -7559,7 +7551,7 @@
         <v>35.112611653416657</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>284</v>
       </c>
@@ -7570,7 +7562,7 @@
         <v>29.584069399458329</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>285</v>
       </c>
@@ -7581,7 +7573,7 @@
         <v>25.454136579291671</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>286</v>
       </c>
@@ -7592,7 +7584,7 @@
         <v>33.825087159583326</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>287</v>
       </c>
@@ -7603,7 +7595,7 @@
         <v>35.045911757208337</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>288</v>
       </c>
@@ -7614,7 +7606,7 @@
         <v>34.914324452083335</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>289</v>
       </c>
@@ -7625,7 +7617,7 @@
         <v>34.976934899583327</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>290</v>
       </c>
@@ -7636,7 +7628,7 @@
         <v>34.976129577374998</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>291</v>
       </c>
@@ -7647,7 +7639,7 @@
         <v>29.592736501166666</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>292</v>
       </c>
@@ -7658,7 +7650,7 @@
         <v>25.44721013654166</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>293</v>
       </c>
@@ -7669,7 +7661,7 @@
         <v>33.414336711583324</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>294</v>
       </c>
@@ -7680,7 +7672,7 @@
         <v>35.405051706166674</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>295</v>
       </c>
@@ -7691,7 +7683,7 @@
         <v>35.087174808833332</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>296</v>
       </c>
@@ -7702,7 +7694,7 @@
         <v>34.306995082374996</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>297</v>
       </c>
@@ -7713,7 +7705,7 @@
         <v>33.833661072791664</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>298</v>
       </c>
@@ -7724,7 +7716,7 @@
         <v>27.847439517625002</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>299</v>
       </c>
@@ -7735,7 +7727,7 @@
         <v>24.645262262208334</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>300</v>
       </c>
@@ -7746,7 +7738,7 @@
         <v>32.964114396458342</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>301</v>
       </c>
@@ -7757,7 +7749,7 @@
         <v>34.637733592583331</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>302</v>
       </c>
@@ -7768,7 +7760,7 @@
         <v>34.997682223916669</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>303</v>
       </c>
@@ -7779,7 +7771,7 @@
         <v>34.810695419208336</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>304</v>
       </c>
@@ -7790,7 +7782,7 @@
         <v>34.069927563416663</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>305</v>
       </c>
@@ -7801,7 +7793,7 @@
         <v>25.877048821249996</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>306</v>
       </c>
@@ -7812,7 +7804,7 @@
         <v>24.313600972083332</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>307</v>
       </c>
@@ -7823,7 +7815,7 @@
         <v>32.458628281999999</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>308</v>
       </c>
@@ -7834,7 +7826,7 @@
         <v>34.855530907375005</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>309</v>
       </c>
@@ -7845,7 +7837,7 @@
         <v>35.156689811833324</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>310</v>
       </c>
@@ -7856,7 +7848,7 @@
         <v>35.283003000083333</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>311</v>
       </c>
@@ -7867,7 +7859,7 @@
         <v>34.707767445208326</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>312</v>
       </c>
@@ -7878,7 +7870,7 @@
         <v>28.540982099499995</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>313</v>
       </c>
@@ -7889,7 +7881,7 @@
         <v>25.012298882374996</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>314</v>
       </c>
@@ -7900,7 +7892,7 @@
         <v>33.551154779833332</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>315</v>
       </c>
@@ -7911,7 +7903,7 @@
         <v>35.140178838958327</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>316</v>
       </c>
@@ -7922,7 +7914,7 @@
         <v>35.587162763541677</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>317</v>
       </c>
@@ -7933,7 +7925,7 @@
         <v>34.9352095785</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>318</v>
       </c>
@@ -7944,7 +7936,7 @@
         <v>33.660924690166659</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>319</v>
       </c>
@@ -7955,7 +7947,7 @@
         <v>28.910164451541661</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>320</v>
       </c>
@@ -7966,7 +7958,7 @@
         <v>25.562673580791667</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>321</v>
       </c>
@@ -7977,7 +7969,7 @@
         <v>33.865385253833331</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>322</v>
       </c>
@@ -7988,7 +7980,7 @@
         <v>35.34782887708333</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>323</v>
       </c>
@@ -7999,7 +7991,7 @@
         <v>35.585171113375004</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>324</v>
       </c>
@@ -8010,7 +8002,7 @@
         <v>35.912289882541664</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>325</v>
       </c>
@@ -8021,7 +8013,7 @@
         <v>35.548408064666674</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>326</v>
       </c>
@@ -8032,7 +8024,7 @@
         <v>29.511104047374996</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>327</v>
       </c>
@@ -8043,7 +8035,7 @@
         <v>25.380462616875004</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>328</v>
       </c>
@@ -8054,7 +8046,7 @@
         <v>33.895173522</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>329</v>
       </c>
@@ -8065,7 +8057,7 @@
         <v>35.736072084124999</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>330</v>
       </c>
@@ -8076,7 +8068,7 @@
         <v>36.641397011791661</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>331</v>
       </c>
@@ -8087,7 +8079,7 @@
         <v>36.626699883791666</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>332</v>
       </c>
@@ -8098,7 +8090,7 @@
         <v>36.065775852416671</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>333</v>
       </c>
@@ -8109,7 +8101,7 @@
         <v>30.039701693583325</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>334</v>
       </c>
@@ -8120,7 +8112,7 @@
         <v>26.323327731000003</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>335</v>
       </c>
@@ -8131,7 +8123,7 @@
         <v>34.489272366208333</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>336</v>
       </c>
@@ -8142,7 +8134,7 @@
         <v>36.115707850916664</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>337</v>
       </c>
@@ -8153,7 +8145,7 @@
         <v>36.295736092875011</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>338</v>
       </c>
@@ -8164,7 +8156,7 @@
         <v>36.169664205958334</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>339</v>
       </c>
@@ -8175,7 +8167,7 @@
         <v>36.361924431291662</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>340</v>
       </c>
@@ -8186,7 +8178,7 @@
         <v>30.578931285791668</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>341</v>
       </c>
@@ -8197,7 +8189,7 @@
         <v>26.577126975374995</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>342</v>
       </c>
@@ -8208,7 +8200,7 @@
         <v>26.774501082416666</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>343</v>
       </c>
@@ -8219,7 +8211,7 @@
         <v>35.796350384416669</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>344</v>
       </c>
@@ -8230,7 +8222,7 @@
         <v>37.614310163666666</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>345</v>
       </c>
@@ -8241,7 +8233,7 @@
         <v>37.535401582416661</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>346</v>
       </c>
@@ -8252,7 +8244,7 @@
         <v>35.789948888833329</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>347</v>
       </c>
@@ -8263,7 +8255,7 @@
         <v>30.745510514333333</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>348</v>
       </c>
@@ -8274,7 +8266,7 @@
         <v>26.966412190791662</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>349</v>
       </c>
@@ -8285,7 +8277,7 @@
         <v>35.637907213791671</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>350</v>
       </c>
@@ -8296,7 +8288,7 @@
         <v>37.545153330541666</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>351</v>
       </c>
@@ -8307,7 +8299,7 @@
         <v>36.899181671791666</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>352</v>
       </c>
@@ -8318,7 +8310,7 @@
         <v>36.160694699500006</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>353</v>
       </c>
@@ -8329,7 +8321,7 @@
         <v>35.216059679874995</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>354</v>
       </c>
@@ -8340,7 +8332,7 @@
         <v>29.335233257291662</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>355</v>
       </c>
@@ -8351,7 +8343,7 @@
         <v>26.830451813166675</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>356</v>
       </c>
@@ -8362,7 +8354,7 @@
         <v>32.621158044208336</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>357</v>
       </c>
@@ -8373,7 +8365,7 @@
         <v>32.184860329416665</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>358</v>
       </c>
@@ -8384,7 +8376,7 @@
         <v>27.298236830291668</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>359</v>
       </c>
@@ -8395,7 +8387,7 @@
         <v>22.442422479875002</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>360</v>
       </c>
@@ -8406,7 +8398,7 @@
         <v>23.10234769425</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>361</v>
       </c>
@@ -8417,7 +8409,7 @@
         <v>26.462276513333336</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>362</v>
       </c>
@@ -8428,7 +8420,7 @@
         <v>25.662166933375001</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>363</v>
       </c>
@@ -8439,7 +8431,7 @@
         <v>30.580772756958325</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>364</v>
       </c>
@@ -8450,7 +8442,7 @@
         <v>31.163536892583323</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>365</v>
       </c>
